--- a/server/LISTAS/mi/SOPORTE LUQUE.xlsx
+++ b/server/LISTAS/mi/SOPORTE LUQUE.xlsx
@@ -691,7 +691,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="2">

--- a/server/LISTAS/mi/SOPORTE LUQUE.xlsx
+++ b/server/LISTAS/mi/SOPORTE LUQUE.xlsx
@@ -691,7 +691,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="2">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="D10" s="15" t="n">
-        <v>60</v>
+        <v>87.8</v>
       </c>
       <c r="E10" s="7" t="n"/>
     </row>
@@ -878,8 +878,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" scale="85" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOPORTE LUQUE.xlsx
+++ b/server/LISTAS/mi/SOPORTE LUQUE.xlsx
@@ -691,7 +691,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="2">

--- a/server/LISTAS/mi/SOPORTE LUQUE.xlsx
+++ b/server/LISTAS/mi/SOPORTE LUQUE.xlsx
@@ -691,7 +691,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="2">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="D10" s="15" t="n">
-        <v>87.8</v>
+        <v>60</v>
       </c>
       <c r="E10" s="7" t="n"/>
     </row>
@@ -878,8 +878,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" scale="85" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOPORTE LUQUE.xlsx
+++ b/server/LISTAS/mi/SOPORTE LUQUE.xlsx
@@ -691,7 +691,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="2">
@@ -878,8 +878,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" scale="85" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOPORTE LUQUE.xlsx
+++ b/server/LISTAS/mi/SOPORTE LUQUE.xlsx
@@ -691,7 +691,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="2">
@@ -878,8 +878,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" scale="85" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOPORTE LUQUE.xlsx
+++ b/server/LISTAS/mi/SOPORTE LUQUE.xlsx
@@ -691,7 +691,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="2">
@@ -878,8 +878,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" scale="85" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOPORTE LUQUE.xlsx
+++ b/server/LISTAS/mi/SOPORTE LUQUE.xlsx
@@ -691,7 +691,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="2">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="D10" s="15" t="n">
-        <v>60</v>
+        <v>107.2</v>
       </c>
       <c r="E10" s="7" t="n"/>
     </row>
@@ -878,8 +878,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" scale="85" horizontalDpi="0" verticalDpi="0"/>
